--- a/GameDesign/HMcsv설명/StageDayTable.xlsx
+++ b/GameDesign/HMcsv설명/StageDayTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\용사관리사\기획\테이블\테이블\csv1설명\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\github\Heros-Manager\GameDesign\HMcsv설명\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC51BC0-18B9-4AD7-82CB-3B0BC968BEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6621A6-FD49-404D-9B63-8F1B04F85A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="19440" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="2904" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageDayTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>StageDayID</t>
   </si>
@@ -28,9 +28,6 @@
     <t>StageDayGroupID</t>
   </si>
   <si>
-    <t>StageDayStringID</t>
-  </si>
-  <si>
     <t>InvadeID</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>Day_S1</t>
   </si>
   <si>
-    <t>Day_t1</t>
-  </si>
-  <si>
     <t>Invade_S1_D1</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
     <t>Day_S1_D2</t>
   </si>
   <si>
-    <t>Day_t2</t>
-  </si>
-  <si>
     <t>Invade_S1_D2</t>
   </si>
   <si>
@@ -64,9 +55,6 @@
     <t>Day_S1_D3</t>
   </si>
   <si>
-    <t>Day_t3</t>
-  </si>
-  <si>
     <t>Invade_S1_D3</t>
   </si>
   <si>
@@ -74,9 +62,6 @@
   </si>
   <si>
     <t>Day_S1_D4</t>
-  </si>
-  <si>
-    <t>Day_t4</t>
   </si>
   <si>
     <t>J_S1_D4</t>
@@ -167,10 +152,6 @@
   </si>
   <si>
     <t>날짜 그룹코드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜 텍스트 코드</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1203,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1214,57 +1195,50 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -1275,248 +1249,209 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
         <v>-1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2">
         <v>-1</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="2">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2">
         <v>-1</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>43</v>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
